--- a/dumps/Stocks/Tata Technologies Ltd.xlsx
+++ b/dumps/Stocks/Tata Technologies Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -204,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -439,6 +440,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP993"/>
+  <dimension ref="A1:AP994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,43 +1097,44 @@
       <c r="AP4" s="55" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="88" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>655.55</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3301.01</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="E5" t="n">
+        <v>682.26</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3428.35</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>19.98</v>
+      <c r="I5" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="87" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1147,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>649.75</v>
+        <v>655.55</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3271.79</v>
+        <v>3301.01</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1158,15 +1161,15 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>19.78</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1182,10 +1185,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>662.6</v>
+        <v>649.75</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3336.45</v>
+        <v>3271.79</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1193,15 +1196,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>20.15</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1217,10 +1220,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>655.95</v>
+        <v>662.6</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3303</v>
+        <v>3336.45</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1228,15 +1231,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>19.98</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46015</v>
+        <v>46027</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1252,10 +1255,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>663.5</v>
+        <v>655.95</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3341.01</v>
+        <v>3303</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1263,19 +1266,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>20.21</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46009</v>
+        <v>46015</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1287,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>637.4</v>
+        <v>663.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3209.64</v>
+        <v>3341.01</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1298,19 +1301,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>19.44</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1322,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>651.3</v>
+        <v>637.4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3279.61</v>
+        <v>3209.64</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1333,19 +1336,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>19.86</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>45993</v>
+        <v>46007</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1357,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>678.25</v>
+        <v>651.3</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3415.32</v>
+        <v>3279.61</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1368,19 +1371,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>20.66</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1389,13 +1392,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>678.55</v>
+        <v>678.25</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>683.36</v>
+        <v>3415.32</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1403,10 +1406,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.68</v>
+        <v>3.41</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>4.13</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="14">
@@ -1424,13 +1427,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>678.5</v>
+        <v>678.55</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2733.24</v>
+        <v>683.36</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1438,19 +1441,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.71</v>
+        <v>0.68</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.53</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="87" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1459,13 +1462,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>675</v>
+        <v>678.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3398.97</v>
+        <v>2733.24</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1473,19 +1476,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.38</v>
+        <v>2.71</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>20.59</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1497,10 +1500,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>679.65</v>
+        <v>675</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3422.35</v>
+        <v>3398.97</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1508,15 +1511,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>20.69</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1529,13 +1532,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>682.25</v>
+        <v>679.65</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2748.34</v>
+        <v>3422.35</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1543,10 +1546,10 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>2.74</v>
+        <v>3.41</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>16.6</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="18">
@@ -1564,13 +1567,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>682.3</v>
+        <v>682.25</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>687.13</v>
+        <v>2748.34</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1578,15 +1581,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.68</v>
+        <v>2.74</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>4.15</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="87" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1599,13 +1602,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>681.3</v>
+        <v>682.3</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3430.65</v>
+        <v>687.13</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1613,19 +1616,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.42</v>
+        <v>0.68</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>20.73</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1637,10 +1640,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>695.05</v>
+        <v>681.3</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3499.93</v>
+        <v>3430.65</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1648,19 +1651,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>21.22</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1672,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>683</v>
+        <v>695.05</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3439.23</v>
+        <v>3499.93</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1683,19 +1686,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>20.83</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45961</v>
+        <v>45972</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1707,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>697.55</v>
+        <v>683</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3512.48</v>
+        <v>3439.23</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1718,19 +1721,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>21.25</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1742,10 +1745,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>694.9</v>
+        <v>697.55</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3499.1</v>
+        <v>3512.48</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1756,16 +1759,16 @@
         <v>3.48</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>21.12</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1777,10 +1780,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>693.45</v>
+        <v>694.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3491.86</v>
+        <v>3499.1</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1788,19 +1791,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>21.14</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1809,13 +1812,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>695.15</v>
+        <v>693.45</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2100.24</v>
+        <v>3491.86</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1823,10 +1826,10 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.08</v>
+        <v>3.47</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>12.71</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="26">
@@ -1844,13 +1847,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>695.15</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1400.16</v>
+        <v>2100.24</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1858,10 +1861,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>8.470000000000001</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="27">
@@ -1879,13 +1882,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>695.15</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3500.41</v>
+        <v>1400.16</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1893,15 +1896,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.47</v>
+        <v>1.39</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>21.19</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="87" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1914,13 +1917,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>680.7</v>
+        <v>695.15</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>6855.21</v>
+        <v>3500.41</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1928,19 +1931,19 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>6.8</v>
+        <v>3.47</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>41.41</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="87" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -1949,13 +1952,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>690.15</v>
+        <v>680.7</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2780.17</v>
+        <v>6855.21</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1963,19 +1966,19 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.76</v>
+        <v>6.8</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>16.81</v>
+        <v>41.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="87" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -1987,10 +1990,10 @@
         <v>4</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>690.65</v>
+        <v>690.15</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2782.14</v>
+        <v>2780.17</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -1998,19 +2001,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>16.79</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="87" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2019,13 +2022,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>673.2</v>
+        <v>690.65</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1355.98</v>
+        <v>2782.14</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2033,109 +2036,50 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.35</v>
+        <v>2.75</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>8.23</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B32" s="39" t="inlineStr">
+      <c r="A32" s="87" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C32" s="39" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D32" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E32" s="41" t="n">
-        <v>685.52</v>
-      </c>
-      <c r="F32" s="41">
-        <f>(D5*E5)</f>
-        <v/>
-      </c>
-      <c r="G32" s="39" t="n"/>
-      <c r="H32" s="40" t="n"/>
-      <c r="I32" s="40" t="n"/>
-      <c r="J32" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K32" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S32" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T32" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U32" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V32" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W32" s="47" t="n"/>
-      <c r="X32" s="47" t="n"/>
-      <c r="Y32" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="47" t="n"/>
-      <c r="AA32" s="47" t="n"/>
-      <c r="AB32" s="48" t="n"/>
-      <c r="AC32" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="49" t="n"/>
+      <c r="D32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>673.2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1355.98</v>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>8.23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2148,13 +2092,13 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>695.53</v>
+        <v>685.52</v>
       </c>
       <c r="F33" s="41">
-        <f>(D6*E6)+I6</f>
+        <f>(D5*E5)</f>
         <v/>
       </c>
       <c r="G33" s="39" t="n"/>
@@ -2165,71 +2109,71 @@
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
@@ -2248,7 +2192,7 @@
         <v>695.53</v>
       </c>
       <c r="F34" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G34" s="39" t="n"/>
@@ -2259,71 +2203,71 @@
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -2336,99 +2280,92 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>677.99</v>
-      </c>
-      <c r="F35" s="41" t="n">
-        <v>1355.98</v>
-      </c>
-      <c r="G35" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H35" s="40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I35" s="40" t="n">
-        <v>8.23</v>
-      </c>
+        <v>695.53</v>
+      </c>
+      <c r="F35" s="41">
+        <f>(D7*E7)+I7</f>
+        <v/>
+      </c>
+      <c r="G35" s="39" t="n"/>
+      <c r="H35" s="40" t="n"/>
+      <c r="I35" s="40" t="n"/>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" s="39" t="inlineStr">
@@ -2437,13 +2374,13 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>732.05</v>
+        <v>677.99</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>2196.15</v>
+        <v>1355.98</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -2451,85 +2388,85 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>2.18</v>
+        <v>1.35</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>13.27</v>
+        <v>8.23</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45824</v>
+        <v>45855</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2538,99 +2475,99 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>11.7</v>
+        <v>732.05</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>198.9</v>
+        <v>2196.15</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>0</v>
+        <v>13.27</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
@@ -2639,88 +2576,88 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>782.35</v>
+        <v>11.7</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>1564.69</v>
+        <v>198.9</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
@@ -2740,13 +2677,13 @@
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>782.35</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>3911.75</v>
+        <v>1564.69</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -2754,81 +2691,81 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>3.88</v>
+        <v>1.55</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>23.62</v>
+        <v>9.44</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -2844,10 +2781,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>764.99</v>
+        <v>782.35</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>3824.94</v>
+        <v>3911.75</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2855,75 +2792,81 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>3.82</v>
+        <v>3.88</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>23.12</v>
+        <v>23.62</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K40" s="47" t="n"/>
-      <c r="L40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="K40" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="M40" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+      <c r="L40" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="N40" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+      <c r="M40" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="O40" s="50" t="n"/>
-      <c r="P40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="N40" s="45">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="Q40" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+      <c r="O40" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="R40" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+      <c r="P40" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
+      <c r="Q40" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R40" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
       <c r="S40" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -2939,10 +2882,10 @@
         <v>5</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>780.5</v>
+        <v>764.99</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>3902.51</v>
+        <v>3824.94</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
@@ -2950,10 +2893,10 @@
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>3.88</v>
+        <v>3.82</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>23.63</v>
+        <v>23.12</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
@@ -2961,76 +2904,155 @@
       </c>
       <c r="K41" s="47" t="n"/>
       <c r="L41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M41" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N41" s="51">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O41" s="50" t="n"/>
       <c r="P41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R41" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
+        <f>if(B13="DIV", F13,"")</f>
+        <v/>
+      </c>
+      <c r="AD41" s="49" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B42" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C42" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D42" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="41" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="F42" s="41" t="n">
+        <v>3902.51</v>
+      </c>
+      <c r="G42" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H42" s="40" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I42" s="40" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="J42" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K42" s="47" t="n"/>
+      <c r="L42" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <v/>
+      </c>
+      <c r="N42" s="51">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <v/>
+      </c>
+      <c r="O42" s="50" t="n"/>
+      <c r="P42" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <v/>
+      </c>
+      <c r="R42" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="S42" s="46">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="T42" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="U42" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <v/>
+      </c>
+      <c r="V42" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="47" t="n"/>
+      <c r="X42" s="47" t="n"/>
+      <c r="Y42" s="46">
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="47" t="n"/>
+      <c r="AA42" s="47" t="n"/>
+      <c r="AB42" s="48" t="n"/>
+      <c r="AC42" s="44">
         <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
-      <c r="AD41" s="49" t="n"/>
-    </row>
-    <row r="42">
-      <c r="E42" s="52" t="n"/>
-      <c r="F42" s="52" t="n"/>
-      <c r="G42" s="53" t="n"/>
-      <c r="J42" s="52" t="n"/>
-      <c r="K42" s="52" t="n"/>
-      <c r="L42" s="52" t="n"/>
-      <c r="M42" s="55" t="n"/>
-      <c r="W42" s="52" t="n"/>
-      <c r="X42" s="52" t="n"/>
-      <c r="Y42" s="52" t="n"/>
-      <c r="Z42" s="52" t="n"/>
-      <c r="AA42" s="52" t="n"/>
-      <c r="AB42" s="52" t="n"/>
-      <c r="AC42" s="52" t="n"/>
+      <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
       <c r="E43" s="52" t="n"/>
@@ -17983,6 +18005,7 @@
       <c r="J977" s="52" t="n"/>
       <c r="K977" s="52" t="n"/>
       <c r="L977" s="52" t="n"/>
+      <c r="M977" s="55" t="n"/>
       <c r="W977" s="52" t="n"/>
       <c r="X977" s="52" t="n"/>
       <c r="Y977" s="52" t="n"/>
@@ -18230,6 +18253,21 @@
       <c r="AA993" s="52" t="n"/>
       <c r="AB993" s="52" t="n"/>
       <c r="AC993" s="52" t="n"/>
+    </row>
+    <row r="994">
+      <c r="E994" s="52" t="n"/>
+      <c r="F994" s="52" t="n"/>
+      <c r="G994" s="53" t="n"/>
+      <c r="J994" s="52" t="n"/>
+      <c r="K994" s="52" t="n"/>
+      <c r="L994" s="52" t="n"/>
+      <c r="W994" s="52" t="n"/>
+      <c r="X994" s="52" t="n"/>
+      <c r="Y994" s="52" t="n"/>
+      <c r="Z994" s="52" t="n"/>
+      <c r="AA994" s="52" t="n"/>
+      <c r="AB994" s="52" t="n"/>
+      <c r="AC994" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$43"/>

--- a/dumps/Stocks/Tata Technologies Ltd.xlsx
+++ b/dumps/Stocks/Tata Technologies Ltd.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP994"/>
+  <dimension ref="A1:AP995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="5">
       <c r="A5" s="88" t="n">
-        <v>45978</v>
+        <v>45989</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1114,18 +1114,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>682.26</v>
+        <v>678.51</v>
       </c>
       <c r="F5" t="n">
-        <v>3428.35</v>
+        <v>3409.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17.05</v>
+        <v>16.95</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1133,8 +1133,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="87" t="n">
-        <v>46049</v>
+      <c r="A6" s="88" t="n">
+        <v>45978</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1150,26 +1150,27 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>655.55</v>
+        <v>682.26</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3301.01</v>
+        <v>3428.35</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>3.28</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>19.98</v>
+        <v>17.05</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1185,10 +1186,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>649.75</v>
+        <v>655.55</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3271.79</v>
+        <v>3301.01</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1196,15 +1197,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>19.78</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1220,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>662.6</v>
+        <v>649.75</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3336.45</v>
+        <v>3271.79</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1231,15 +1232,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>20.15</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1255,10 +1256,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>655.95</v>
+        <v>662.6</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3303</v>
+        <v>3336.45</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1266,15 +1267,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>19.98</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46015</v>
+        <v>46027</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1290,10 +1291,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>663.5</v>
+        <v>655.95</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3341.01</v>
+        <v>3303</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1301,19 +1302,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>20.21</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46009</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1325,10 +1326,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>637.4</v>
+        <v>663.5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3209.64</v>
+        <v>3341.01</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1336,19 +1337,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>19.44</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1360,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>651.3</v>
+        <v>637.4</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3279.61</v>
+        <v>3209.64</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1371,19 +1372,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>19.86</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>45993</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1395,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>678.25</v>
+        <v>651.3</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3415.32</v>
+        <v>3279.61</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1406,19 +1407,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>20.66</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="87" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1427,13 +1428,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>678.55</v>
+        <v>678.25</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>683.36</v>
+        <v>3415.32</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1441,10 +1442,10 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.68</v>
+        <v>3.41</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>4.13</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="15">
@@ -1462,13 +1463,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>678.5</v>
+        <v>678.55</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2733.24</v>
+        <v>683.36</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1476,19 +1477,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.71</v>
+        <v>0.68</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>16.53</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1497,13 +1498,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>675</v>
+        <v>678.5</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3398.97</v>
+        <v>2733.24</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1511,19 +1512,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.38</v>
+        <v>2.71</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>20.59</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1535,10 +1536,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>679.65</v>
+        <v>675</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3422.35</v>
+        <v>3398.97</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1546,15 +1547,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>20.69</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="87" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1567,13 +1568,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>682.25</v>
+        <v>679.65</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2748.34</v>
+        <v>3422.35</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1581,10 +1582,10 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>2.74</v>
+        <v>3.41</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>16.6</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="19">
@@ -1602,13 +1603,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>682.3</v>
+        <v>682.25</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>687.13</v>
+        <v>2748.34</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1616,15 +1617,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.68</v>
+        <v>2.74</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>4.15</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1637,13 +1638,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>681.3</v>
+        <v>682.3</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3430.65</v>
+        <v>687.13</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1651,19 +1652,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.42</v>
+        <v>0.68</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>20.73</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1675,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>695.05</v>
+        <v>681.3</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3499.93</v>
+        <v>3430.65</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1686,19 +1687,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>21.22</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1710,10 +1711,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>683</v>
+        <v>695.05</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3439.23</v>
+        <v>3499.93</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1721,19 +1722,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>20.83</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45961</v>
+        <v>45972</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1745,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>697.55</v>
+        <v>683</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3512.48</v>
+        <v>3439.23</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1756,19 +1757,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>21.25</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1780,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>694.9</v>
+        <v>697.55</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3499.1</v>
+        <v>3512.48</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1794,16 +1795,16 @@
         <v>3.48</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>21.12</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1815,10 +1816,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>693.45</v>
+        <v>694.9</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3491.86</v>
+        <v>3499.1</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1826,19 +1827,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>21.14</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="87" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1847,13 +1848,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>695.15</v>
+        <v>693.45</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2100.24</v>
+        <v>3491.86</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1861,10 +1862,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.08</v>
+        <v>3.47</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>12.71</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="27">
@@ -1882,13 +1883,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>695.15</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1400.16</v>
+        <v>2100.24</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1896,10 +1897,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>8.470000000000001</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="28">
@@ -1917,13 +1918,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>695.15</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3500.41</v>
+        <v>1400.16</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1931,15 +1932,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3.47</v>
+        <v>1.39</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>21.19</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="87" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1952,13 +1953,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>680.7</v>
+        <v>695.15</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>6855.21</v>
+        <v>3500.41</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1966,19 +1967,19 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>6.8</v>
+        <v>3.47</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>41.41</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="87" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -1987,13 +1988,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>690.15</v>
+        <v>680.7</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2780.17</v>
+        <v>6855.21</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2001,19 +2002,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.76</v>
+        <v>6.8</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>16.81</v>
+        <v>41.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="87" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2025,10 +2026,10 @@
         <v>4</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>690.65</v>
+        <v>690.15</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2782.14</v>
+        <v>2780.17</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2036,19 +2037,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>16.79</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="87" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2057,13 +2058,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>673.2</v>
+        <v>690.65</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1355.98</v>
+        <v>2782.14</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2071,109 +2072,50 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.35</v>
+        <v>2.75</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>8.23</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B33" s="39" t="inlineStr">
+      <c r="A33" s="87" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C33" s="39" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D33" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" s="41" t="n">
-        <v>685.52</v>
-      </c>
-      <c r="F33" s="41">
-        <f>(D5*E5)</f>
-        <v/>
-      </c>
-      <c r="G33" s="39" t="n"/>
-      <c r="H33" s="40" t="n"/>
-      <c r="I33" s="40" t="n"/>
-      <c r="J33" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N33" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S33" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W33" s="47" t="n"/>
-      <c r="X33" s="47" t="n"/>
-      <c r="Y33" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z33" s="47" t="n"/>
-      <c r="AA33" s="47" t="n"/>
-      <c r="AB33" s="48" t="n"/>
-      <c r="AC33" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD33" s="49" t="n"/>
+      <c r="D33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>673.2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1355.98</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>8.23</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
@@ -2186,13 +2128,13 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>695.53</v>
+        <v>685.52</v>
       </c>
       <c r="F34" s="41">
-        <f>(D6*E6)+I6</f>
+        <f>(D5*E5)</f>
         <v/>
       </c>
       <c r="G34" s="39" t="n"/>
@@ -2203,71 +2145,71 @@
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -2286,7 +2228,7 @@
         <v>695.53</v>
       </c>
       <c r="F35" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G35" s="39" t="n"/>
@@ -2297,71 +2239,71 @@
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -2374,99 +2316,92 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>677.99</v>
-      </c>
-      <c r="F36" s="41" t="n">
-        <v>1355.98</v>
-      </c>
-      <c r="G36" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H36" s="40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I36" s="40" t="n">
-        <v>8.23</v>
-      </c>
+        <v>695.53</v>
+      </c>
+      <c r="F36" s="41">
+        <f>(D7*E7)+I7</f>
+        <v/>
+      </c>
+      <c r="G36" s="39" t="n"/>
+      <c r="H36" s="40" t="n"/>
+      <c r="I36" s="40" t="n"/>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2475,13 +2410,13 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>732.05</v>
+        <v>677.99</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>2196.15</v>
+        <v>1355.98</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -2489,85 +2424,85 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>2.18</v>
+        <v>1.35</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>13.27</v>
+        <v>8.23</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45824</v>
+        <v>45855</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
@@ -2576,99 +2511,99 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>11.7</v>
+        <v>732.05</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>198.9</v>
+        <v>2196.15</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>0</v>
+        <v>13.27</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C39" s="39" t="inlineStr">
@@ -2677,88 +2612,88 @@
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>782.35</v>
+        <v>11.7</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>1564.69</v>
+        <v>198.9</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
@@ -2778,13 +2713,13 @@
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>782.35</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>3911.75</v>
+        <v>1564.69</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2792,81 +2727,81 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>3.88</v>
+        <v>1.55</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>23.62</v>
+        <v>9.44</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -2882,10 +2817,10 @@
         <v>5</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>764.99</v>
+        <v>782.35</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>3824.94</v>
+        <v>3911.75</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
@@ -2893,75 +2828,81 @@
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>3.82</v>
+        <v>3.88</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>23.12</v>
+        <v>23.62</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K41" s="47" t="n"/>
-      <c r="L41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="K41" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="M41" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+      <c r="L41" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="N41" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+      <c r="M41" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="O41" s="50" t="n"/>
-      <c r="P41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="N41" s="45">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="Q41" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+      <c r="O41" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="R41" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+      <c r="P41" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
+      <c r="Q41" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R41" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
       <c r="S41" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
@@ -2977,10 +2918,10 @@
         <v>5</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>780.5</v>
+        <v>764.99</v>
       </c>
       <c r="F42" s="41" t="n">
-        <v>3902.51</v>
+        <v>3824.94</v>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
@@ -2988,10 +2929,10 @@
         </is>
       </c>
       <c r="H42" s="40" t="n">
-        <v>3.88</v>
+        <v>3.82</v>
       </c>
       <c r="I42" s="40" t="n">
-        <v>23.63</v>
+        <v>23.12</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
@@ -2999,76 +2940,155 @@
       </c>
       <c r="K42" s="47" t="n"/>
       <c r="L42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M42" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N42" s="51">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O42" s="50" t="n"/>
       <c r="P42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R42" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
+        <f>if(B13="DIV", F13,"")</f>
+        <v/>
+      </c>
+      <c r="AD42" s="49" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B43" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C43" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D43" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" s="41" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="F43" s="41" t="n">
+        <v>3902.51</v>
+      </c>
+      <c r="G43" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H43" s="40" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I43" s="40" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="J43" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K43" s="47" t="n"/>
+      <c r="L43" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <v/>
+      </c>
+      <c r="N43" s="51">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <v/>
+      </c>
+      <c r="O43" s="50" t="n"/>
+      <c r="P43" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <v/>
+      </c>
+      <c r="R43" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="S43" s="46">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="T43" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="U43" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <v/>
+      </c>
+      <c r="V43" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="47" t="n"/>
+      <c r="X43" s="47" t="n"/>
+      <c r="Y43" s="46">
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="47" t="n"/>
+      <c r="AA43" s="47" t="n"/>
+      <c r="AB43" s="48" t="n"/>
+      <c r="AC43" s="44">
         <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
-      <c r="AD42" s="49" t="n"/>
-    </row>
-    <row r="43">
-      <c r="E43" s="52" t="n"/>
-      <c r="F43" s="52" t="n"/>
-      <c r="G43" s="53" t="n"/>
-      <c r="J43" s="52" t="n"/>
-      <c r="K43" s="52" t="n"/>
-      <c r="L43" s="52" t="n"/>
-      <c r="M43" s="55" t="n"/>
-      <c r="W43" s="52" t="n"/>
-      <c r="X43" s="52" t="n"/>
-      <c r="Y43" s="52" t="n"/>
-      <c r="Z43" s="52" t="n"/>
-      <c r="AA43" s="52" t="n"/>
-      <c r="AB43" s="52" t="n"/>
-      <c r="AC43" s="52" t="n"/>
+      <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
       <c r="E44" s="52" t="n"/>
@@ -18021,6 +18041,7 @@
       <c r="J978" s="52" t="n"/>
       <c r="K978" s="52" t="n"/>
       <c r="L978" s="52" t="n"/>
+      <c r="M978" s="55" t="n"/>
       <c r="W978" s="52" t="n"/>
       <c r="X978" s="52" t="n"/>
       <c r="Y978" s="52" t="n"/>
@@ -18268,6 +18289,21 @@
       <c r="AA994" s="52" t="n"/>
       <c r="AB994" s="52" t="n"/>
       <c r="AC994" s="52" t="n"/>
+    </row>
+    <row r="995">
+      <c r="E995" s="52" t="n"/>
+      <c r="F995" s="52" t="n"/>
+      <c r="G995" s="53" t="n"/>
+      <c r="J995" s="52" t="n"/>
+      <c r="K995" s="52" t="n"/>
+      <c r="L995" s="52" t="n"/>
+      <c r="W995" s="52" t="n"/>
+      <c r="X995" s="52" t="n"/>
+      <c r="Y995" s="52" t="n"/>
+      <c r="Z995" s="52" t="n"/>
+      <c r="AA995" s="52" t="n"/>
+      <c r="AB995" s="52" t="n"/>
+      <c r="AC995" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$43"/>

--- a/dumps/Stocks/Tata Technologies Ltd.xlsx
+++ b/dumps/Stocks/Tata Technologies Ltd.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP983"/>
+  <dimension ref="A1:AP985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="5">
       <c r="A5" s="85" t="n">
-        <v>46049</v>
+        <v>45954</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1111,18 +1111,15 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>655.55</v>
+        <v>698.37</v>
       </c>
       <c r="F5" t="n">
-        <v>3294.15</v>
+        <v>3491.85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>16.4</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" s="85" t="n">
-        <v>46034</v>
+        <v>45953</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1144,21 +1141,18 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>649.75</v>
+        <v>700.08</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3265</v>
+        <v>7000.8</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>16.25</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1167,7 +1161,7 @@
     </row>
     <row r="7">
       <c r="A7" s="85" t="n">
-        <v>46030</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1183,18 +1177,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>662.6</v>
+        <v>655.55</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3329.55</v>
+        <v>3294.15</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>16.55</v>
+        <v>16.4</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1203,7 +1197,7 @@
     </row>
     <row r="8">
       <c r="A8" s="85" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1219,18 +1213,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>655.95</v>
+        <v>649.75</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3296.15</v>
+        <v>3265</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>16.4</v>
+        <v>16.25</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="n">
-        <v>46015</v>
+        <v>46030</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1255,18 +1249,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>663.5</v>
+        <v>662.6</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3334.1</v>
+        <v>3329.55</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>16.6</v>
+        <v>16.55</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1275,11 +1269,11 @@
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46009</v>
+        <v>46027</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1291,18 +1285,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>637.4</v>
+        <v>655.95</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3202.95</v>
+        <v>3296.15</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>15.95</v>
+        <v>16.4</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1327,18 +1321,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>651.3</v>
+        <v>663.5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3272.8</v>
+        <v>3334.1</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>45993</v>
+        <v>46009</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1363,18 +1357,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>678.25</v>
+        <v>637.4</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3408.2</v>
+        <v>3202.95</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>16.95</v>
+        <v>15.95</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1383,7 +1377,7 @@
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>45989</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1399,18 +1393,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>678.51</v>
+        <v>651.3</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3409.5</v>
+        <v>3272.8</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>16.95</v>
+        <v>16.3</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1435,18 +1429,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>675</v>
+        <v>678.25</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3391.9</v>
+        <v>3408.2</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.9</v>
+        <v>16.95</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1455,7 +1449,7 @@
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>45979</v>
+        <v>45989</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1471,18 +1465,18 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>679.65</v>
+        <v>678.51</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3415.25</v>
+        <v>3409.5</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>17</v>
+        <v>16.95</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1491,11 +1485,11 @@
     </row>
     <row r="16">
       <c r="A16" s="85" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1507,18 +1501,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>682.26</v>
+        <v>675</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3428.35</v>
+        <v>3391.9</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>17.05</v>
+        <v>16.9</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1527,7 +1521,7 @@
     </row>
     <row r="17">
       <c r="A17" s="85" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1543,18 +1537,18 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>681.3</v>
+        <v>679.65</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3423.55</v>
+        <v>3415.25</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>17.05</v>
+        <v>17</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1563,11 +1557,11 @@
     </row>
     <row r="18">
       <c r="A18" s="85" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1579,18 +1573,18 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>695.05</v>
+        <v>682.26</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3492.65</v>
+        <v>3428.35</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>17.4</v>
+        <v>17.05</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1599,7 +1593,7 @@
     </row>
     <row r="19">
       <c r="A19" s="85" t="n">
-        <v>45972</v>
+        <v>45975</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1615,18 +1609,18 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>683</v>
+        <v>681.3</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3432.1</v>
+        <v>3423.55</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1635,7 +1629,7 @@
     </row>
     <row r="20">
       <c r="A20" s="85" t="n">
-        <v>45961</v>
+        <v>45974</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1651,18 +1645,18 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>697.55</v>
+        <v>695.05</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3505.2</v>
+        <v>3492.65</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>17.45</v>
+        <v>17.4</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1671,7 +1665,7 @@
     </row>
     <row r="21">
       <c r="A21" s="85" t="n">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1687,215 +1681,99 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
+        <v>683</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3432.1</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608021091</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J21" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="85" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>697.55</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3505.2</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="J22" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="85" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>694.9</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>3491.85</v>
       </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="G23" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>17.35</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J23" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B22" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C22" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D22" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" s="41" t="n">
-        <v>685.52</v>
-      </c>
-      <c r="F22" s="41">
-        <f>(D5*E5)</f>
-        <v/>
-      </c>
-      <c r="G22" s="39" t="n"/>
-      <c r="H22" s="40" t="n"/>
-      <c r="I22" s="40" t="n"/>
-      <c r="J22" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K22" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N22" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O22" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S22" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W22" s="47" t="n"/>
-      <c r="X22" s="47" t="n"/>
-      <c r="Y22" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="47" t="n"/>
-      <c r="AA22" s="47" t="n"/>
-      <c r="AB22" s="48" t="n"/>
-      <c r="AC22" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD22" s="49" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B23" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C23" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D23" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="41" t="n">
-        <v>695.53</v>
-      </c>
-      <c r="F23" s="41">
-        <f>(D6*E6)+I6</f>
-        <v/>
-      </c>
-      <c r="G23" s="39" t="n"/>
-      <c r="H23" s="40" t="n"/>
-      <c r="I23" s="40" t="n"/>
-      <c r="J23" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K23" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N23" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O23" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S23" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W23" s="47" t="n"/>
-      <c r="X23" s="47" t="n"/>
-      <c r="Y23" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="47" t="n"/>
-      <c r="AA23" s="47" t="n"/>
-      <c r="AB23" s="48" t="n"/>
-      <c r="AC23" s="44">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD23" s="49" t="n"/>
-    </row>
     <row r="24">
       <c r="A24" s="38" t="n">
-        <v>45924</v>
+        <v>45950</v>
       </c>
       <c r="B24" s="39" t="inlineStr">
         <is>
@@ -1908,13 +1786,13 @@
         </is>
       </c>
       <c r="D24" s="40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E24" s="41" t="n">
-        <v>695.53</v>
+        <v>685.52</v>
       </c>
       <c r="F24" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D5*E5)</f>
         <v/>
       </c>
       <c r="G24" s="39" t="n"/>
@@ -1925,71 +1803,71 @@
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45897</v>
+        <v>45947</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
@@ -2002,99 +1880,92 @@
         </is>
       </c>
       <c r="D25" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>677.99</v>
-      </c>
-      <c r="F25" s="41" t="n">
-        <v>1355.98</v>
-      </c>
-      <c r="G25" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H25" s="40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I25" s="40" t="n">
-        <v>8.23</v>
-      </c>
+        <v>695.53</v>
+      </c>
+      <c r="F25" s="41">
+        <f>(D6*E6)+I6</f>
+        <v/>
+      </c>
+      <c r="G25" s="39" t="n"/>
+      <c r="H25" s="40" t="n"/>
+      <c r="I25" s="40" t="n"/>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45855</v>
+        <v>45924</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="39" t="inlineStr">
@@ -2103,99 +1974,92 @@
         </is>
       </c>
       <c r="D26" s="40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>732.05</v>
-      </c>
-      <c r="F26" s="41" t="n">
-        <v>2196.15</v>
-      </c>
-      <c r="G26" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H26" s="40" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I26" s="40" t="n">
-        <v>13.27</v>
-      </c>
+        <v>695.53</v>
+      </c>
+      <c r="F26" s="41">
+        <f>(D7*E7)+I7</f>
+        <v/>
+      </c>
+      <c r="G26" s="39" t="n"/>
+      <c r="H26" s="40" t="n"/>
+      <c r="I26" s="40" t="n"/>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45824</v>
+        <v>45897</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -2204,95 +2068,95 @@
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>11.7</v>
+        <v>677.99</v>
       </c>
       <c r="F27" s="41" t="n">
-        <v>198.9</v>
+        <v>1355.98</v>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H27" s="40" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="I27" s="40" t="n">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -2305,13 +2169,13 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>782.35</v>
+        <v>732.05</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>1564.69</v>
+        <v>2196.15</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
@@ -2319,85 +2183,85 @@
         </is>
       </c>
       <c r="H28" s="40" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="I28" s="40" t="n">
-        <v>9.44</v>
+        <v>13.27</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -2406,95 +2270,95 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>782.35</v>
+        <v>11.7</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>3911.75</v>
+        <v>198.9</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>23.62</v>
+        <v>0</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
@@ -2507,13 +2371,13 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>764.99</v>
+        <v>782.35</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>3824.94</v>
+        <v>1564.69</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
@@ -2521,75 +2385,81 @@
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>3.82</v>
+        <v>1.55</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>23.12</v>
+        <v>9.44</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K30" s="47" t="n"/>
-      <c r="L30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="K30" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M30" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+      <c r="L30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N30" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+      <c r="M30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O30" s="50" t="n"/>
-      <c r="P30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="N30" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
-      <c r="Q30" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+      <c r="O30" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="R30" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+      <c r="P30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
+      <c r="Q30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
       <c r="S30" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2605,10 +2475,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>780.5</v>
+        <v>782.35</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>3902.51</v>
+        <v>3911.75</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
@@ -2619,100 +2489,264 @@
         <v>3.88</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>23.63</v>
+        <v>23.62</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K31" s="47" t="n"/>
-      <c r="L31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+      <c r="K31" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="M31" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+      <c r="L31" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="N31" s="51">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+      <c r="M31" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="O31" s="50" t="n"/>
-      <c r="P31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+      <c r="N31" s="45">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="Q31" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+      <c r="O31" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="R31" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+      <c r="P31" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
+      <c r="Q31" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R31" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
       <c r="S31" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
+      <c r="AD31" s="49" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="38" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B32" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C32" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D32" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="41" t="n">
+        <v>764.99</v>
+      </c>
+      <c r="F32" s="41" t="n">
+        <v>3824.94</v>
+      </c>
+      <c r="G32" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H32" s="40" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I32" s="40" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="J32" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K32" s="47" t="n"/>
+      <c r="L32" s="47">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="50">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="51">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="50" t="n"/>
+      <c r="P32" s="47">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="50">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <v/>
+      </c>
+      <c r="R32" s="50">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <v/>
+      </c>
+      <c r="S32" s="46">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="47">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="U32" s="47">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <v/>
+      </c>
+      <c r="V32" s="47">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="47" t="n"/>
+      <c r="X32" s="47" t="n"/>
+      <c r="Y32" s="46">
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="47" t="n"/>
+      <c r="AA32" s="47" t="n"/>
+      <c r="AB32" s="48" t="n"/>
+      <c r="AC32" s="44">
+        <f>if(B13="DIV", F13,"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="49" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C33" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="41" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="F33" s="41" t="n">
+        <v>3902.51</v>
+      </c>
+      <c r="G33" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="40" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I33" s="40" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="J33" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="47" t="n"/>
+      <c r="L33" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="51">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="50" t="n"/>
+      <c r="P33" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="S33" s="46">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="T33" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="U33" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="W33" s="47" t="n"/>
+      <c r="X33" s="47" t="n"/>
+      <c r="Y33" s="46">
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="47" t="n"/>
+      <c r="AA33" s="47" t="n"/>
+      <c r="AB33" s="48" t="n"/>
+      <c r="AC33" s="44">
         <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
-      <c r="AD31" s="49" t="n"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="52" t="n"/>
-      <c r="F32" s="52" t="n"/>
-      <c r="G32" s="53" t="n"/>
-      <c r="J32" s="52" t="n"/>
-      <c r="K32" s="52" t="n"/>
-      <c r="L32" s="52" t="n"/>
-      <c r="M32" s="55" t="n"/>
-      <c r="W32" s="52" t="n"/>
-      <c r="X32" s="52" t="n"/>
-      <c r="Y32" s="52" t="n"/>
-      <c r="Z32" s="52" t="n"/>
-      <c r="AA32" s="52" t="n"/>
-      <c r="AB32" s="52" t="n"/>
-      <c r="AC32" s="52" t="n"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="52" t="n"/>
-      <c r="F33" s="52" t="n"/>
-      <c r="G33" s="53" t="n"/>
-      <c r="J33" s="52" t="n"/>
-      <c r="K33" s="52" t="n"/>
-      <c r="L33" s="52" t="n"/>
-      <c r="M33" s="55" t="n"/>
-      <c r="W33" s="52" t="n"/>
-      <c r="X33" s="52" t="n"/>
-      <c r="Y33" s="52" t="n"/>
-      <c r="Z33" s="52" t="n"/>
-      <c r="AA33" s="52" t="n"/>
-      <c r="AB33" s="52" t="n"/>
-      <c r="AC33" s="52" t="n"/>
+      <c r="AD33" s="49" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="52" t="n"/>
@@ -17649,6 +17683,7 @@
       <c r="J967" s="52" t="n"/>
       <c r="K967" s="52" t="n"/>
       <c r="L967" s="52" t="n"/>
+      <c r="M967" s="55" t="n"/>
       <c r="W967" s="52" t="n"/>
       <c r="X967" s="52" t="n"/>
       <c r="Y967" s="52" t="n"/>
@@ -17664,6 +17699,7 @@
       <c r="J968" s="52" t="n"/>
       <c r="K968" s="52" t="n"/>
       <c r="L968" s="52" t="n"/>
+      <c r="M968" s="55" t="n"/>
       <c r="W968" s="52" t="n"/>
       <c r="X968" s="52" t="n"/>
       <c r="Y968" s="52" t="n"/>
@@ -17896,6 +17932,36 @@
       <c r="AA983" s="52" t="n"/>
       <c r="AB983" s="52" t="n"/>
       <c r="AC983" s="52" t="n"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="52" t="n"/>
+      <c r="F984" s="52" t="n"/>
+      <c r="G984" s="53" t="n"/>
+      <c r="J984" s="52" t="n"/>
+      <c r="K984" s="52" t="n"/>
+      <c r="L984" s="52" t="n"/>
+      <c r="W984" s="52" t="n"/>
+      <c r="X984" s="52" t="n"/>
+      <c r="Y984" s="52" t="n"/>
+      <c r="Z984" s="52" t="n"/>
+      <c r="AA984" s="52" t="n"/>
+      <c r="AB984" s="52" t="n"/>
+      <c r="AC984" s="52" t="n"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="52" t="n"/>
+      <c r="F985" s="52" t="n"/>
+      <c r="G985" s="53" t="n"/>
+      <c r="J985" s="52" t="n"/>
+      <c r="K985" s="52" t="n"/>
+      <c r="L985" s="52" t="n"/>
+      <c r="W985" s="52" t="n"/>
+      <c r="X985" s="52" t="n"/>
+      <c r="Y985" s="52" t="n"/>
+      <c r="Z985" s="52" t="n"/>
+      <c r="AA985" s="52" t="n"/>
+      <c r="AB985" s="52" t="n"/>
+      <c r="AC985" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$43"/>

--- a/dumps/Stocks/Tata Technologies Ltd.xlsx
+++ b/dumps/Stocks/Tata Technologies Ltd.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP985"/>
+  <dimension ref="A1:AP986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="5">
       <c r="A5" s="85" t="n">
-        <v>45954</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1111,15 +1111,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>698.37</v>
+        <v>597.55</v>
       </c>
       <c r="F5" t="n">
-        <v>3491.85</v>
+        <v>3008.85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611972212</t>
         </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.0906</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1128,7 +1134,7 @@
     </row>
     <row r="6">
       <c r="A6" s="85" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1141,13 +1147,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>700.08</v>
+        <v>698.37</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7000.8</v>
+        <v>3491.85</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1161,7 +1167,7 @@
     </row>
     <row r="7">
       <c r="A7" s="85" t="n">
-        <v>46049</v>
+        <v>45953</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1174,21 +1180,18 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>655.55</v>
+        <v>700.08</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3294.15</v>
+        <v>7000.8</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>16.4</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="8">
       <c r="A8" s="85" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1213,18 +1216,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>649.75</v>
+        <v>655.55</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3265</v>
+        <v>3294.15</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>16.25</v>
+        <v>16.4</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1233,7 +1236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1249,18 +1252,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>662.6</v>
+        <v>649.75</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3329.55</v>
+        <v>3265</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>16.55</v>
+        <v>16.25</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1269,7 +1272,7 @@
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1285,18 +1288,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>655.95</v>
+        <v>662.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3296.15</v>
+        <v>3329.55</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>16.4</v>
+        <v>16.55</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>46015</v>
+        <v>46027</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1321,18 +1324,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>663.5</v>
+        <v>655.95</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3334.1</v>
+        <v>3296.15</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1341,11 +1344,11 @@
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>46009</v>
+        <v>46015</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1357,18 +1360,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>637.4</v>
+        <v>663.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3202.95</v>
+        <v>3334.1</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15.95</v>
+        <v>16.6</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1377,11 +1380,11 @@
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1393,18 +1396,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>651.3</v>
+        <v>637.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3272.8</v>
+        <v>3202.95</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>16.3</v>
+        <v>15.95</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1413,11 +1416,11 @@
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>45993</v>
+        <v>46007</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1429,18 +1432,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>678.25</v>
+        <v>651.3</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3408.2</v>
+        <v>3272.8</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.95</v>
+        <v>16.3</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1449,11 +1452,11 @@
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1465,14 +1468,14 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>678.51</v>
+        <v>678.25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3409.5</v>
+        <v>3408.2</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
@@ -1485,11 +1488,11 @@
     </row>
     <row r="16">
       <c r="A16" s="85" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1501,18 +1504,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>675</v>
+        <v>678.51</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3391.9</v>
+        <v>3409.5</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>16.9</v>
+        <v>16.95</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1521,11 +1524,11 @@
     </row>
     <row r="17">
       <c r="A17" s="85" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1537,18 +1540,18 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>679.65</v>
+        <v>675</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3415.25</v>
+        <v>3391.9</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1557,7 +1560,7 @@
     </row>
     <row r="18">
       <c r="A18" s="85" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1573,18 +1576,18 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>682.26</v>
+        <v>679.65</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3428.35</v>
+        <v>3415.25</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>17.05</v>
+        <v>17</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="19">
       <c r="A19" s="85" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1609,14 +1612,14 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>681.3</v>
+        <v>682.26</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3423.55</v>
+        <v>3428.35</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
@@ -1629,11 +1632,11 @@
     </row>
     <row r="20">
       <c r="A20" s="85" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1645,18 +1648,18 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>695.05</v>
+        <v>681.3</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3492.65</v>
+        <v>3423.55</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>17.4</v>
+        <v>17.05</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1665,11 +1668,11 @@
     </row>
     <row r="21">
       <c r="A21" s="85" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1681,18 +1684,18 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>683</v>
+        <v>695.05</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3432.1</v>
+        <v>3492.65</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1701,11 +1704,11 @@
     </row>
     <row r="22">
       <c r="A22" s="85" t="n">
-        <v>45961</v>
+        <v>45972</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1717,18 +1720,18 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>697.55</v>
+        <v>683</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3505.2</v>
+        <v>3432.1</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>17.45</v>
+        <v>17.1</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1737,11 +1740,11 @@
     </row>
     <row r="23">
       <c r="A23" s="85" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1753,121 +1756,63 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
+        <v>697.55</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3505.2</v>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="J23" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="85" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="0" t="n">
         <v>694.9</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>3491.85</v>
       </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="G24" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>17.35</v>
       </c>
-      <c r="J23" s="0">
+      <c r="J24" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B24" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C24" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D24" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="41" t="n">
-        <v>685.52</v>
-      </c>
-      <c r="F24" s="41">
-        <f>(D5*E5)</f>
-        <v/>
-      </c>
-      <c r="G24" s="39" t="n"/>
-      <c r="H24" s="40" t="n"/>
-      <c r="I24" s="40" t="n"/>
-      <c r="J24" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K24" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N24" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O24" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S24" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W24" s="47" t="n"/>
-      <c r="X24" s="47" t="n"/>
-      <c r="Y24" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="47" t="n"/>
-      <c r="AA24" s="47" t="n"/>
-      <c r="AB24" s="48" t="n"/>
-      <c r="AC24" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD24" s="49" t="n"/>
-    </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
@@ -1880,13 +1825,13 @@
         </is>
       </c>
       <c r="D25" s="40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>695.53</v>
+        <v>685.52</v>
       </c>
       <c r="F25" s="41">
-        <f>(D6*E6)+I6</f>
+        <f>(D5*E5)</f>
         <v/>
       </c>
       <c r="G25" s="39" t="n"/>
@@ -1897,71 +1842,71 @@
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
@@ -1980,7 +1925,7 @@
         <v>695.53</v>
       </c>
       <c r="F26" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G26" s="39" t="n"/>
@@ -1991,71 +1936,71 @@
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
@@ -2068,99 +2013,92 @@
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>677.99</v>
-      </c>
-      <c r="F27" s="41" t="n">
-        <v>1355.98</v>
-      </c>
-      <c r="G27" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H27" s="40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I27" s="40" t="n">
-        <v>8.23</v>
-      </c>
+        <v>695.53</v>
+      </c>
+      <c r="F27" s="41">
+        <f>(D7*E7)+I7</f>
+        <v/>
+      </c>
+      <c r="G27" s="39" t="n"/>
+      <c r="H27" s="40" t="n"/>
+      <c r="I27" s="40" t="n"/>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" s="39" t="inlineStr">
@@ -2169,13 +2107,13 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>732.05</v>
+        <v>677.99</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>2196.15</v>
+        <v>1355.98</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
@@ -2183,85 +2121,85 @@
         </is>
       </c>
       <c r="H28" s="40" t="n">
-        <v>2.18</v>
+        <v>1.35</v>
       </c>
       <c r="I28" s="40" t="n">
-        <v>13.27</v>
+        <v>8.23</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45824</v>
+        <v>45855</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -2270,99 +2208,99 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>11.7</v>
+        <v>732.05</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>198.9</v>
+        <v>2196.15</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>0</v>
+        <v>13.27</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
@@ -2371,88 +2309,88 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>782.35</v>
+        <v>11.7</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>1564.69</v>
+        <v>198.9</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.3.3500/- per share on Ex-Date: 16-JUN-2025 Annual-Dividend of Rs.8.3500/- per share on Ex-Date: 16-JUN-2025</t>
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
@@ -2472,13 +2410,13 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" s="41" t="n">
         <v>782.35</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>3911.75</v>
+        <v>1564.69</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
@@ -2486,81 +2424,81 @@
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>3.88</v>
+        <v>1.55</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>23.62</v>
+        <v>9.44</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2576,10 +2514,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>764.99</v>
+        <v>782.35</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>3824.94</v>
+        <v>3911.75</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
@@ -2587,75 +2525,81 @@
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>3.82</v>
+        <v>3.88</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>23.12</v>
+        <v>23.62</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K32" s="47" t="n"/>
-      <c r="L32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="K32" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="M32" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+      <c r="L32" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="N32" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+      <c r="M32" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="O32" s="50" t="n"/>
-      <c r="P32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+      <c r="N32" s="45">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="Q32" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+      <c r="O32" s="43">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="R32" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+      <c r="P32" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
+      <c r="Q32" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R32" s="44">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
       <c r="S32" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W32" s="47" t="n"/>
       <c r="X32" s="47" t="n"/>
       <c r="Y32" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z32" s="47" t="n"/>
       <c r="AA32" s="47" t="n"/>
       <c r="AB32" s="48" t="n"/>
       <c r="AC32" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2671,10 +2615,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>780.5</v>
+        <v>764.99</v>
       </c>
       <c r="F33" s="41" t="n">
-        <v>3902.51</v>
+        <v>3824.94</v>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
@@ -2682,10 +2626,10 @@
         </is>
       </c>
       <c r="H33" s="40" t="n">
-        <v>3.88</v>
+        <v>3.82</v>
       </c>
       <c r="I33" s="40" t="n">
-        <v>23.63</v>
+        <v>23.12</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
@@ -2693,76 +2637,155 @@
       </c>
       <c r="K33" s="47" t="n"/>
       <c r="L33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M33" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N33" s="51">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O33" s="50" t="n"/>
       <c r="P33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R33" s="50">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
+        <f>if(B13="DIV", F13,"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="49" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B34" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C34" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="41" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="F34" s="41" t="n">
+        <v>3902.51</v>
+      </c>
+      <c r="G34" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H34" s="40" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I34" s="40" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="J34" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K34" s="47" t="n"/>
+      <c r="L34" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="51">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="50" t="n"/>
+      <c r="P34" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="50">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="S34" s="46">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="T34" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="U34" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <v/>
+      </c>
+      <c r="V34" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="W34" s="47" t="n"/>
+      <c r="X34" s="47" t="n"/>
+      <c r="Y34" s="46">
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="47" t="n"/>
+      <c r="AA34" s="47" t="n"/>
+      <c r="AB34" s="48" t="n"/>
+      <c r="AC34" s="44">
         <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
-      <c r="AD33" s="49" t="n"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="52" t="n"/>
-      <c r="F34" s="52" t="n"/>
-      <c r="G34" s="53" t="n"/>
-      <c r="J34" s="52" t="n"/>
-      <c r="K34" s="52" t="n"/>
-      <c r="L34" s="52" t="n"/>
-      <c r="M34" s="55" t="n"/>
-      <c r="W34" s="52" t="n"/>
-      <c r="X34" s="52" t="n"/>
-      <c r="Y34" s="52" t="n"/>
-      <c r="Z34" s="52" t="n"/>
-      <c r="AA34" s="52" t="n"/>
-      <c r="AB34" s="52" t="n"/>
-      <c r="AC34" s="52" t="n"/>
+      <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="52" t="n"/>
@@ -17715,6 +17738,7 @@
       <c r="J969" s="52" t="n"/>
       <c r="K969" s="52" t="n"/>
       <c r="L969" s="52" t="n"/>
+      <c r="M969" s="55" t="n"/>
       <c r="W969" s="52" t="n"/>
       <c r="X969" s="52" t="n"/>
       <c r="Y969" s="52" t="n"/>
@@ -17962,6 +17986,21 @@
       <c r="AA985" s="52" t="n"/>
       <c r="AB985" s="52" t="n"/>
       <c r="AC985" s="52" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="52" t="n"/>
+      <c r="F986" s="52" t="n"/>
+      <c r="G986" s="53" t="n"/>
+      <c r="J986" s="52" t="n"/>
+      <c r="K986" s="52" t="n"/>
+      <c r="L986" s="52" t="n"/>
+      <c r="W986" s="52" t="n"/>
+      <c r="X986" s="52" t="n"/>
+      <c r="Y986" s="52" t="n"/>
+      <c r="Z986" s="52" t="n"/>
+      <c r="AA986" s="52" t="n"/>
+      <c r="AB986" s="52" t="n"/>
+      <c r="AC986" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$43"/>
